--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.2/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.2/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1083">
   <si>
     <t>anchor score</t>
   </si>
@@ -502,460 +502,460 @@
     <t>store</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>around</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>te</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>around</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>te</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>trump</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>digital</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>negative</t>
   </si>
   <si>
     <t>san</t>
@@ -3628,10 +3628,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3689,7 +3689,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02656263678549908</v>
+        <v>0.02689700407844434</v>
       </c>
       <c r="C3">
         <v>189</v>
@@ -3710,16 +3710,16 @@
         <v>103</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K3">
-        <v>0.005604900301804624</v>
+        <v>0.007137942837890291</v>
       </c>
       <c r="L3">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="M3">
-        <v>119</v>
+        <v>193</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>367</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3739,7 +3739,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01404488392437386</v>
+        <v>0.0142216792423781</v>
       </c>
       <c r="C4">
         <v>143</v>
@@ -3760,28 +3760,28 @@
         <v>372</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="K4">
-        <v>0.004287469544198641</v>
+        <v>0.006499117705411976</v>
       </c>
       <c r="L4">
-        <v>640</v>
+        <v>160</v>
       </c>
       <c r="M4">
-        <v>669</v>
+        <v>160</v>
       </c>
       <c r="N4">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2438</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3789,7 +3789,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01058280780846222</v>
+        <v>0.01071602292664685</v>
       </c>
       <c r="C5">
         <v>30</v>
@@ -3810,28 +3810,28 @@
         <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="K5">
-        <v>0.003782522568924972</v>
+        <v>0.005604900301804624</v>
       </c>
       <c r="L5">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="M5">
-        <v>212</v>
+        <v>119</v>
       </c>
       <c r="N5">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>171</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3839,7 +3839,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009660737597394286</v>
+        <v>0.009782345806111677</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -3860,28 +3860,28 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>315</v>
+        <v>76</v>
       </c>
       <c r="K6">
-        <v>0.003596602577860087</v>
+        <v>0.004287469544198641</v>
       </c>
       <c r="L6">
-        <v>49</v>
+        <v>640</v>
       </c>
       <c r="M6">
-        <v>49</v>
+        <v>669</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>181</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3889,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008854212261833026</v>
+        <v>0.008965668026148113</v>
       </c>
       <c r="C7">
         <v>21</v>
@@ -3910,28 +3910,28 @@
         <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>163</v>
       </c>
       <c r="K7">
-        <v>0.003337782642528347</v>
+        <v>0.003782522568924972</v>
       </c>
       <c r="L7">
-        <v>424</v>
+        <v>209</v>
       </c>
       <c r="M7">
-        <v>445</v>
+        <v>212</v>
       </c>
       <c r="N7">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O7">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>1698</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3939,7 +3939,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.008640826392224648</v>
+        <v>0.008749596080750276</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -3960,28 +3960,28 @@
         <v>129</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>315</v>
       </c>
       <c r="K8">
-        <v>0.00323439792633803</v>
+        <v>0.003596602577860087</v>
       </c>
       <c r="L8">
-        <v>401</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>421</v>
+        <v>49</v>
       </c>
       <c r="N8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2780</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3989,7 +3989,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007229434038595013</v>
+        <v>0.007320437289082968</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -4010,28 +4010,28 @@
         <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>316</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>0.003125325628140189</v>
+        <v>0.003337782642528347</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>424</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>445</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>78</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4039,7 +4039,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.006966456953241576</v>
+        <v>0.007054149879651152</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -4060,28 +4060,28 @@
         <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>317</v>
+        <v>105</v>
       </c>
       <c r="K10">
-        <v>0.00308280220959436</v>
+        <v>0.00323439792633803</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>401</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>421</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>107</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4089,7 +4089,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006966456953241576</v>
+        <v>0.007054149879651152</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -4110,16 +4110,16 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K11">
-        <v>0.003039683971246003</v>
+        <v>0.003125325628140189</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4139,7 +4139,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006966456953241576</v>
+        <v>0.007054149879651152</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -4160,28 +4160,28 @@
         <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>179</v>
+        <v>317</v>
       </c>
       <c r="K12">
-        <v>0.003027995767883966</v>
+        <v>0.00308280220959436</v>
       </c>
       <c r="L12">
+        <v>36</v>
+      </c>
+      <c r="M12">
+        <v>36</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>107</v>
-      </c>
-      <c r="M12">
-        <v>108</v>
-      </c>
-      <c r="N12">
-        <v>0.99</v>
-      </c>
-      <c r="O12">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4189,7 +4189,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006693155342911115</v>
+        <v>0.0067774079813575</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4210,16 +4210,16 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K13">
-        <v>0.002814200517536</v>
+        <v>0.003039683971246003</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4239,7 +4239,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006693155342911115</v>
+        <v>0.0067774079813575</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4260,16 +4260,16 @@
         <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K14">
-        <v>0.002793361575683741</v>
+        <v>0.003027995767883966</v>
       </c>
       <c r="L14">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="M14">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="N14">
         <v>0.99</v>
@@ -4281,7 +4281,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4289,7 +4289,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006693155342911115</v>
+        <v>0.0067774079813575</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -4310,28 +4310,28 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>173</v>
+        <v>319</v>
       </c>
       <c r="K15">
-        <v>0.002778557286968479</v>
+        <v>0.002814200517536</v>
       </c>
       <c r="L15">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>36</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4339,7 +4339,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006693155342911115</v>
+        <v>0.0067774079813575</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -4360,28 +4360,28 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="K16">
-        <v>0.002773776051851091</v>
+        <v>0.002793361575683741</v>
       </c>
       <c r="L16">
-        <v>192</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>198</v>
+        <v>97</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>703</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4389,7 +4389,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.00640820836172727</v>
+        <v>0.006488874121675833</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -4410,28 +4410,28 @@
         <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K17">
-        <v>0.002724281921630541</v>
+        <v>0.002778557286968479</v>
       </c>
       <c r="L17">
-        <v>202</v>
+        <v>122</v>
       </c>
       <c r="M17">
-        <v>209</v>
+        <v>124</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>685</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4439,7 +4439,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.00640820836172727</v>
+        <v>0.006488874121675833</v>
       </c>
       <c r="C18">
         <v>11</v>
@@ -4460,28 +4460,28 @@
         <v>8</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="K18">
-        <v>0.002669785028351516</v>
+        <v>0.002773776051851091</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>198</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>138</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4489,7 +4489,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006109986936997738</v>
+        <v>0.006186898721341759</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -4510,16 +4510,16 @@
         <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K19">
-        <v>0.002640657693117787</v>
+        <v>0.002724281921630541</v>
       </c>
       <c r="L19">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="M19">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="N19">
         <v>0.97</v>
@@ -4531,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>139</v>
+        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4539,7 +4539,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006109986936997738</v>
+        <v>0.006186898721341759</v>
       </c>
       <c r="C20">
         <v>10</v>
@@ -4560,16 +4560,16 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K20">
-        <v>0.002517097463810234</v>
+        <v>0.002669785028351516</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4581,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>77</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4589,7 +4589,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005796442558436571</v>
+        <v>0.005869407483667006</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -4610,28 +4610,28 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>322</v>
+        <v>164</v>
       </c>
       <c r="K21">
-        <v>0.002409937344716647</v>
+        <v>0.002640657693117787</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4639,7 +4639,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005796442558436571</v>
+        <v>0.005869407483667006</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -4660,16 +4660,16 @@
         <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K22">
-        <v>0.002409937344716647</v>
+        <v>0.002517097463810234</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4689,7 +4689,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005796442558436571</v>
+        <v>0.005869407483667006</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -4710,7 +4710,7 @@
         <v>21</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K23">
         <v>0.002409937344716647</v>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4739,7 +4739,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005796442558436571</v>
+        <v>0.005869407483667006</v>
       </c>
       <c r="C24">
         <v>9</v>
@@ -4760,16 +4760,16 @@
         <v>13</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K24">
-        <v>0.002354529079673879</v>
+        <v>0.002409937344716647</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4789,7 +4789,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005796442558436571</v>
+        <v>0.005869407483667006</v>
       </c>
       <c r="C25">
         <v>9</v>
@@ -4810,16 +4810,16 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K25">
-        <v>0.002354529079673879</v>
+        <v>0.002409937344716647</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4839,7 +4839,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005464938453105067</v>
+        <v>0.00553373044433068</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -4860,16 +4860,16 @@
         <v>19</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K26">
-        <v>0.002297785100613182</v>
+        <v>0.002354529079673879</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4881,7 +4881,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4889,7 +4889,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005464938453105067</v>
+        <v>0.00553373044433068</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -4910,16 +4910,16 @@
         <v>5</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K27">
-        <v>0.002239603882424285</v>
+        <v>0.002354529079673879</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>79</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4939,7 +4939,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005464938453105067</v>
+        <v>0.00553373044433068</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -4960,16 +4960,16 @@
         <v>11</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K28">
-        <v>0.002239603882424285</v>
+        <v>0.002297785100613182</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -4981,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>281</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4989,7 +4989,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005464938453105067</v>
+        <v>0.00553373044433068</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -5010,7 +5010,7 @@
         <v>18</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K29">
         <v>0.002239603882424285</v>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5039,7 +5039,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005464938453105067</v>
+        <v>0.00553373044433068</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -5060,7 +5060,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K30">
         <v>0.002239603882424285</v>
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>118</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5089,7 +5089,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005464938453105067</v>
+        <v>0.00553373044433068</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -5110,28 +5110,28 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c r="K31">
-        <v>0.002221639485078352</v>
+        <v>0.002239603882424285</v>
       </c>
       <c r="L31">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="N31">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5139,7 +5139,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005464938453105067</v>
+        <v>0.00553373044433068</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -5160,16 +5160,16 @@
         <v>47</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K32">
-        <v>0.002179870347461044</v>
+        <v>0.002239603882424285</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -5181,7 +5181,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>39</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5189,7 +5189,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005111981832831383</v>
+        <v>0.005176330848361434</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -5210,28 +5210,28 @@
         <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>333</v>
+        <v>173</v>
       </c>
       <c r="K33">
-        <v>0.002179870347461044</v>
+        <v>0.002221639485078352</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5239,7 +5239,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005111981832831383</v>
+        <v>0.005176330848361434</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -5260,16 +5260,16 @@
         <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K34">
-        <v>0.002118453188840844</v>
+        <v>0.002179870347461044</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5289,7 +5289,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005111981832831383</v>
+        <v>0.005176330848361434</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5310,28 +5310,28 @@
         <v>245</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>174</v>
+        <v>333</v>
       </c>
       <c r="K35">
-        <v>0.002071820259954265</v>
+        <v>0.002179870347461044</v>
       </c>
       <c r="L35">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="M35">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5339,7 +5339,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005111981832831383</v>
+        <v>0.005176330848361434</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -5360,28 +5360,28 @@
         <v>24</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>167</v>
+        <v>334</v>
       </c>
       <c r="K36">
-        <v>0.002059967068837228</v>
+        <v>0.002118453188840844</v>
       </c>
       <c r="L36">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>146</v>
+        <v>17</v>
       </c>
       <c r="N36">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>272</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5389,7 +5389,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005111981832831383</v>
+        <v>0.005176330848361434</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -5410,28 +5410,28 @@
         <v>17</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>335</v>
+        <v>172</v>
       </c>
       <c r="K37">
-        <v>0.002055201473062907</v>
+        <v>0.002071820259954265</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>214</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5439,7 +5439,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005111981832831383</v>
+        <v>0.005176330848361434</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -5460,28 +5460,28 @@
         <v>31</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>336</v>
+        <v>165</v>
       </c>
       <c r="K38">
-        <v>0.002055201473062907</v>
+        <v>0.002059967068837228</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5489,7 +5489,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.005111981832831383</v>
+        <v>0.005176330848361434</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -5510,7 +5510,7 @@
         <v>30</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K39">
         <v>0.002055201473062907</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>47</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5539,7 +5539,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.005111981832831383</v>
+        <v>0.005176330848361434</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -5560,7 +5560,7 @@
         <v>4</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K40">
         <v>0.002055201473062907</v>
@@ -5581,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>93</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5589,7 +5589,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005111981832831383</v>
+        <v>0.005176330848361434</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -5610,7 +5610,7 @@
         <v>9</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K41">
         <v>0.002055201473062907</v>
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5639,7 +5639,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.005111981832831383</v>
+        <v>0.005176330848361434</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -5660,28 +5660,28 @@
         <v>13</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>164</v>
+        <v>338</v>
       </c>
       <c r="K42">
-        <v>0.002040441965634394</v>
+        <v>0.002055201473062907</v>
       </c>
       <c r="L42">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>71</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5689,7 +5689,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5710,16 +5710,16 @@
         <v>367</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K43">
-        <v>0.001989940269568397</v>
+        <v>0.002055201473062907</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5739,7 +5739,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5760,7 +5760,7 @@
         <v>6</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K44">
         <v>0.001989940269568397</v>
@@ -5781,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5789,7 +5789,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5810,7 +5810,7 @@
         <v>8</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K45">
         <v>0.001989940269568397</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5839,7 +5839,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -5860,7 +5860,7 @@
         <v>160</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K46">
         <v>0.001989940269568397</v>
@@ -5881,7 +5881,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -5889,7 +5889,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -5910,28 +5910,28 @@
         <v>34</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>162</v>
+        <v>343</v>
       </c>
       <c r="K47">
-        <v>0.001899590459839441</v>
+        <v>0.001989940269568397</v>
       </c>
       <c r="L47">
-        <v>193</v>
+        <v>15</v>
       </c>
       <c r="M47">
-        <v>206</v>
+        <v>15</v>
       </c>
       <c r="N47">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>134</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -5939,7 +5939,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -5960,7 +5960,7 @@
         <v>26</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K48">
         <v>0.001886268928779621</v>
@@ -5989,7 +5989,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -6010,7 +6010,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K49">
         <v>0.001859788693955338</v>
@@ -6039,7 +6039,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -6089,7 +6089,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -6139,7 +6139,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -6189,7 +6189,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004732775530507421</v>
+        <v>0.004792351142485718</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -6239,7 +6239,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004320413196112324</v>
+        <v>0.004374798040375138</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -6289,7 +6289,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004320413196112324</v>
+        <v>0.004374798040375138</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -6339,7 +6339,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.004320413196112324</v>
+        <v>0.004374798040375138</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6389,7 +6389,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.004320413196112324</v>
+        <v>0.004374798040375138</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -6439,7 +6439,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.004320413196112324</v>
+        <v>0.004374798040375138</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -6489,7 +6489,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.004320413196112324</v>
+        <v>0.004374798040375138</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -6539,7 +6539,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.004320413196112324</v>
+        <v>0.004374798040375138</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -6560,7 +6560,7 @@
         <v>14</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K60">
         <v>0.001724805475695155</v>
@@ -6589,7 +6589,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003864295038957714</v>
+        <v>0.003912938322444671</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6610,7 +6610,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K61">
         <v>0.001724805475695155</v>
@@ -6639,7 +6639,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003864295038957714</v>
+        <v>0.003912938322444671</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6660,7 +6660,7 @@
         <v>5</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K62">
         <v>0.001722145988213137</v>
@@ -6689,7 +6689,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003864295038957714</v>
+        <v>0.003912938322444671</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003864295038957714</v>
+        <v>0.003912938322444671</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6789,7 +6789,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003864295038957714</v>
+        <v>0.003912938322444671</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6839,7 +6839,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003864295038957714</v>
+        <v>0.003912938322444671</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6889,7 +6889,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003864295038957714</v>
+        <v>0.003912938322444671</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -6939,7 +6939,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003864295038957714</v>
+        <v>0.003912938322444671</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -6989,7 +6989,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003864295038957714</v>
+        <v>0.003912938322444671</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -7039,7 +7039,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003864295038957714</v>
+        <v>0.003912938322444671</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -7089,7 +7089,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003432068367954707</v>
+        <v>0.003475270833834245</v>
       </c>
       <c r="C71">
         <v>29</v>
@@ -7139,7 +7139,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003346577671455557</v>
+        <v>0.00338870399067875</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7160,7 +7160,7 @@
         <v>4</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K72">
         <v>0.001684066326611219</v>
@@ -7189,7 +7189,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003346577671455557</v>
+        <v>0.00338870399067875</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7210,7 +7210,7 @@
         <v>12</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K73">
         <v>0.001645746747968579</v>
@@ -7239,7 +7239,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003346577671455557</v>
+        <v>0.00338870399067875</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7289,7 +7289,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003346577671455557</v>
+        <v>0.00338870399067875</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7339,7 +7339,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003346577671455557</v>
+        <v>0.00338870399067875</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7389,7 +7389,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003346577671455557</v>
+        <v>0.00338870399067875</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7439,7 +7439,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003346577671455557</v>
+        <v>0.00338870399067875</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7460,7 +7460,7 @@
         <v>5</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K78">
         <v>0.001624146370649099</v>
@@ -7489,7 +7489,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003346577671455557</v>
+        <v>0.00338870399067875</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7510,7 +7510,7 @@
         <v>20</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K79">
         <v>0.001616798445724111</v>
@@ -7539,7 +7539,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003346577671455557</v>
+        <v>0.00338870399067875</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7560,7 +7560,7 @@
         <v>4</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K80">
         <v>0.001601003769311547</v>
@@ -7589,7 +7589,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002793384001315021</v>
+        <v>0.0028285467848225</v>
       </c>
       <c r="C81">
         <v>21</v>
@@ -7639,7 +7639,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7689,7 +7689,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7739,7 +7739,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7789,7 +7789,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7839,7 +7839,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7889,7 +7889,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7939,7 +7939,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7989,7 +7989,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -8039,7 +8039,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8089,7 +8089,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8139,7 +8139,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8189,7 +8189,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8239,7 +8239,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8289,7 +8289,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8339,7 +8339,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8389,7 +8389,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8439,7 +8439,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C98">
         <v>2</v>
@@ -8489,7 +8489,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.002732469226552534</v>
+        <v>0.00276686522216534</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -8539,7 +8539,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.002716327509361811</v>
+        <v>0.002750520314970397</v>
       </c>
       <c r="C100">
         <v>20</v>
@@ -8589,7 +8589,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8610,7 +8610,7 @@
         <v>58</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K101">
         <v>0.001410713627563631</v>
@@ -8639,7 +8639,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8689,7 +8689,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8739,7 +8739,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8789,7 +8789,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8839,7 +8839,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8889,7 +8889,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8939,7 +8939,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8989,7 +8989,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9039,7 +9039,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9089,7 +9089,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9139,7 +9139,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9189,7 +9189,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9239,7 +9239,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9289,7 +9289,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9339,7 +9339,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9389,7 +9389,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9410,7 +9410,7 @@
         <v>38</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K117">
         <v>0.001326507113193821</v>
@@ -9439,7 +9439,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9460,7 +9460,7 @@
         <v>12</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K118">
         <v>0.001313443222331264</v>
@@ -9489,7 +9489,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9539,7 +9539,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9589,7 +9589,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9639,7 +9639,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9689,7 +9689,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9739,7 +9739,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9789,7 +9789,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9839,7 +9839,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9889,7 +9889,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9939,7 +9939,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9989,7 +9989,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10039,7 +10039,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10089,7 +10089,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10139,7 +10139,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10189,7 +10189,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10239,7 +10239,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10289,7 +10289,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10339,7 +10339,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10389,7 +10389,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10439,7 +10439,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10460,7 +10460,7 @@
         <v>5</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K138">
         <v>0.001222378854534562</v>
@@ -10489,7 +10489,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10510,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K139">
         <v>0.00117270176857229</v>
@@ -10539,7 +10539,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10560,7 +10560,7 @@
         <v>18</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K140">
         <v>0.001156593129611033</v>
@@ -10589,7 +10589,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10639,7 +10639,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10689,7 +10689,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10739,7 +10739,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10789,7 +10789,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10839,7 +10839,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10889,7 +10889,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -10939,7 +10939,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -10989,7 +10989,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11039,7 +11039,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11089,7 +11089,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11139,7 +11139,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11189,7 +11189,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11239,7 +11239,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11289,7 +11289,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.001932147519478857</v>
+        <v>0.001956469161222336</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11339,7 +11339,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001907090286898397</v>
+        <v>0.001931096511196903</v>
       </c>
       <c r="C156">
         <v>7</v>
@@ -11389,25 +11389,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001853953648523633</v>
+        <v>0.001867131907146837</v>
       </c>
       <c r="C157">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D157">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E157">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F157">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>134</v>
+        <v>703</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>437</v>
@@ -11439,25 +11439,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001843920852133289</v>
+        <v>0.001725629703827702</v>
       </c>
       <c r="C158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D158">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E158">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F158">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>703</v>
+        <v>171</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>438</v>
@@ -11489,25 +11489,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001715754393867812</v>
+        <v>0.001631168795533191</v>
       </c>
       <c r="C159">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D159">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="E159">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F159">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>439</v>
@@ -11539,25 +11539,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001704177718654483</v>
+        <v>0.001623867090988796</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="E160">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F160">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>171</v>
+        <v>272</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>440</v>
@@ -11589,25 +11589,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001610891091261423</v>
+        <v>0.001572740101989955</v>
       </c>
       <c r="C161">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D161">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E161">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F161">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>139</v>
+        <v>726</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>441</v>
@@ -11639,25 +11639,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.00160368015709336</v>
+        <v>0.001485016414606132</v>
       </c>
       <c r="C162">
         <v>6</v>
       </c>
       <c r="D162">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="E162">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F162">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>272</v>
+        <v>444</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>442</v>
@@ -11689,25 +11689,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.0015531887479107</v>
+        <v>0.001430320378008695</v>
       </c>
       <c r="C163">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D163">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="E163">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>726</v>
+        <v>1046</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>443</v>
@@ -11739,13 +11739,13 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001466555588371248</v>
+        <v>0.001387479315535849</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D164">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E164">
         <v>0.95</v>
@@ -11757,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>444</v>
+        <v>309</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>444</v>
@@ -11789,25 +11789,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001412539499831914</v>
+        <v>0.001381151385265523</v>
       </c>
       <c r="C165">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D165">
         <v>115</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>1046</v>
+        <v>535</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>445</v>
@@ -11839,25 +11839,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001370231011546296</v>
+        <v>0.00135466850313944</v>
       </c>
       <c r="C166">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E166">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F166">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>309</v>
+        <v>36</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>446</v>
@@ -11889,25 +11889,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001363981746279264</v>
+        <v>0.00135297948853466</v>
       </c>
       <c r="C167">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D167">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E167">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F167">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>535</v>
+        <v>15</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>447</v>
@@ -11939,13 +11939,13 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.00133782808333239</v>
+        <v>0.001240582654232239</v>
       </c>
       <c r="C168">
         <v>2</v>
       </c>
       <c r="D168">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="E168">
         <v>0.98</v>
@@ -11957,7 +11957,7 @@
         <v>1</v>
       </c>
       <c r="H168">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>448</v>
@@ -11989,25 +11989,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001336160065536009</v>
+        <v>0.001207390639392361</v>
       </c>
       <c r="C169">
         <v>3</v>
       </c>
       <c r="D169">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="E169">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F169">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>449</v>
@@ -12039,25 +12039,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001225160480723223</v>
+        <v>0.001170734630209225</v>
       </c>
       <c r="C170">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D170">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E170">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F170">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>450</v>
@@ -12089,25 +12089,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001192381088944153</v>
+        <v>0.001152611042043104</v>
       </c>
       <c r="C171">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D171">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E171">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F171">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>451</v>
@@ -12139,25 +12139,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001156180765105191</v>
+        <v>0.001114658855124418</v>
       </c>
       <c r="C172">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D172">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="E172">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F172">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>452</v>
@@ -12189,28 +12189,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001138282478429745</v>
+        <v>0.001085600747993263</v>
       </c>
       <c r="C173">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="E173">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F173">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K173">
         <v>0.001104456005822596</v>
@@ -12239,28 +12239,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.00110080209015318</v>
+        <v>0.001084830984934813</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="E174">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F174">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K174">
         <v>0.001100048916323099</v>
@@ -12289,28 +12289,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001072105215841533</v>
+        <v>0.001080920784792492</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D175">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="E175">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="F175">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>45</v>
+        <v>270</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K175">
         <v>0.001067395392076062</v>
@@ -12339,28 +12339,28 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001071345022012032</v>
+        <v>0.001068221138097326</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D176">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E176">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F176">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K176">
         <v>0.001067395392076062</v>
@@ -12389,28 +12389,28 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.001067483431113797</v>
+        <v>0.001015848043540143</v>
       </c>
       <c r="C177">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D177">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="E177">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F177">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K177">
         <v>0.0010344194969662</v>
@@ -12439,25 +12439,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.00105494165874822</v>
+        <v>0.0009501207508297958</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E178">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F178">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>453</v>
@@ -12489,25 +12489,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.001003219634838131</v>
+        <v>0.0009431227254296742</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D179">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E179">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F179">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>266</v>
+        <v>104</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>454</v>
@@ -12539,25 +12539,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0009383094240924557</v>
+        <v>0.0009380041739350956</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E180">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F180">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>455</v>
@@ -12589,25 +12589,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0009313983939131465</v>
+        <v>0.0009311127157575897</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E181">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F181">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>456</v>
@@ -12639,13 +12639,13 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0009263434731561047</v>
+        <v>0.0009107874672941889</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E182">
         <v>0.98</v>
@@ -12657,7 +12657,7 @@
         <v>1</v>
       </c>
       <c r="H182">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>457</v>
@@ -12689,25 +12689,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0009195376854201298</v>
+        <v>0.0009107874672941889</v>
       </c>
       <c r="C183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D183">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E183">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F183">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>458</v>
@@ -12739,25 +12739,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0008994651081571097</v>
+        <v>0.0008686760524215828</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D184">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E184">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F184">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>459</v>
@@ -12789,13 +12789,13 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0008994651081571097</v>
+        <v>0.0008389296211229198</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E185">
         <v>0.98</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>460</v>
@@ -12839,25 +12839,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0008578771969339058</v>
+        <v>0.0008026309903044939</v>
       </c>
       <c r="C186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D186">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E186">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F186">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>195</v>
+        <v>94</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>461</v>
@@ -12889,25 +12889,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.000828500555284644</v>
+        <v>0.0007962718957069672</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E187">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F187">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>225</v>
+        <v>34</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>462</v>
@@ -12939,25 +12939,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0007926531670986312</v>
+        <v>0.0007567548691194361</v>
       </c>
       <c r="C188">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D188">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="E188">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="F188">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>94</v>
+        <v>906</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>463</v>
@@ -12989,25 +12989,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0007863731249204727</v>
+        <v>0.0007523323663410015</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E189">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F189">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>34</v>
+        <v>274</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>464</v>
@@ -13039,25 +13039,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0007473473501157342</v>
+        <v>0.0007420672956368058</v>
       </c>
       <c r="C190">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="E190">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="F190">
-        <v>0.15</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>906</v>
+        <v>106</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>465</v>
@@ -13089,13 +13089,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.000742979825218024</v>
+        <v>0.0007420672956368058</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E191">
         <v>0.97</v>
@@ -13107,7 +13107,7 @@
         <v>1</v>
       </c>
       <c r="H191">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>466</v>
@@ -13139,13 +13139,13 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0007328423636666262</v>
+        <v>0.0007314359367818514</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E192">
         <v>0.97</v>
@@ -13157,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="H192">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>467</v>
@@ -13189,25 +13189,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0007328423636666262</v>
+        <v>0.0007259530247436155</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
         <v>31</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F193">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>468</v>
@@ -13239,13 +13239,13 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0007223431674373045</v>
+        <v>0.0007204138657214076</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E194">
         <v>0.97</v>
@@ -13257,7 +13257,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>469</v>
@@ -13289,25 +13289,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0007169284156465942</v>
+        <v>0.0007177537226971644</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D195">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E195">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F195">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>250</v>
+        <v>502</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>470</v>
@@ -13339,25 +13339,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.00071145811610041</v>
+        <v>0.0007089742091211042</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E196">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F196">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>471</v>
@@ -13389,25 +13389,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0007088310423659385</v>
+        <v>0.0007089742091211042</v>
       </c>
       <c r="C197">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E197">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F197">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>502</v>
+        <v>69</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>472</v>
@@ -13439,25 +13439,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0007001606703946178</v>
+        <v>0.000694636999142587</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E198">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F198">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>473</v>
@@ -13489,25 +13489,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0007001606703946178</v>
+        <v>0.000694636999142587</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E199">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F199">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>474</v>
@@ -13539,25 +13539,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0006860016919423674</v>
+        <v>0.0006443527101711029</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E200">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F200">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>475</v>
@@ -13589,25 +13589,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0006860016919423674</v>
+        <v>0.0006435148145335836</v>
       </c>
       <c r="C201">
         <v>2</v>
       </c>
       <c r="D201">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E201">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F201">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>476</v>
@@ -13639,25 +13639,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0006363425068498148</v>
+        <v>0.0006296554834375171</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E202">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F202">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>477</v>
@@ -13689,25 +13689,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0006355150274242747</v>
+        <v>0.0006296554834375171</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E203">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F203">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>478</v>
@@ -13739,25 +13739,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0006218279871531309</v>
+        <v>0.0006062253181753367</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D204">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E204">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F204">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>479</v>
@@ -13789,25 +13789,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0006218279871531309</v>
+        <v>0.000565932182435225</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
         <v>22</v>
       </c>
       <c r="E205">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F205">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>338</v>
+        <v>205</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>480</v>
@@ -13839,25 +13839,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0005986890915397608</v>
+        <v>0.0005630492571226639</v>
       </c>
       <c r="C206">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E206">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F206">
-        <v>0.07999999999999996</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>481</v>
@@ -13889,25 +13889,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0005588968557021961</v>
+        <v>0.0005630492571226639</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E207">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F207">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>482</v>
@@ -13939,25 +13939,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0005560497691741223</v>
+        <v>0.0005445170677868184</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E208">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F208">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>483</v>
@@ -13989,13 +13989,13 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0005560497691741223</v>
+        <v>0.0005440391069552192</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E209">
         <v>0.9399999999999999</v>
@@ -14007,7 +14007,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>484</v>
@@ -14039,25 +14039,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0005377479608116559</v>
+        <v>0.0005440391069552192</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D210">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E210">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F210">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>485</v>
@@ -14089,13 +14089,13 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.000537275941700143</v>
+        <v>0.000523878754487038</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E211">
         <v>0.9399999999999999</v>
@@ -14107,7 +14107,7 @@
         <v>1</v>
       </c>
       <c r="H211">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>486</v>
@@ -14139,13 +14139,13 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.000537275941700143</v>
+        <v>0.000523878754487038</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E212">
         <v>0.9399999999999999</v>
@@ -14157,7 +14157,7 @@
         <v>1</v>
       </c>
       <c r="H212">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>487</v>
@@ -14189,25 +14189,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0005173662105450251</v>
+        <v>0.0005221679940958412</v>
       </c>
       <c r="C213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D213">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E213">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F213">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>488</v>
@@ -14239,25 +14239,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0005173662105450251</v>
+        <v>0.0005165874908511453</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D214">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E214">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F214">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>489</v>
@@ -14289,25 +14289,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0005156767172926969</v>
+        <v>0.0005024343917534838</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D215">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E215">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F215">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>490</v>
@@ -14339,25 +14339,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0005101655874904023</v>
+        <v>0.0005024343917534838</v>
       </c>
       <c r="C216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E216">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="F216">
-        <v>0.12</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>88</v>
+        <v>449</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>491</v>
@@ -14389,25 +14389,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0004961884311638488</v>
+        <v>0.0004988095794732067</v>
       </c>
       <c r="C217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D217">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E217">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F217">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>492</v>
@@ -14439,25 +14439,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0004961884311638488</v>
+        <v>0.0004550336891507008</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E218">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F218">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>449</v>
+        <v>66</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>493</v>
@@ -14489,25 +14489,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0004926086803583019</v>
+        <v>0.0004453116813868624</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D219">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E219">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="F219">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>494</v>
@@ -14539,13 +14539,13 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0004493769854376598</v>
+        <v>0.000428666033408753</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E220">
         <v>0.92</v>
@@ -14589,25 +14589,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0004397758357964772</v>
+        <v>0.000428666033408753</v>
       </c>
       <c r="C221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E221">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="F221">
-        <v>0.14</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>496</v>
@@ -14639,25 +14639,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0004233371164501785</v>
+        <v>0.0004217919200299931</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E222">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F222">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>497</v>
@@ -14689,25 +14689,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0004233371164501785</v>
+        <v>0.00040017448389165</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E223">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F223">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>498</v>
@@ -14739,25 +14739,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0004165484578928982</v>
+        <v>0.0003692285295437464</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E224">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F224">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>499</v>
@@ -14789,25 +14789,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0003951997566508621</v>
+        <v>0.0003692285295437464</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E225">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F225">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>500</v>
@@ -14839,7 +14839,7 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0003646385036976841</v>
+        <v>0.0003692285295437464</v>
       </c>
       <c r="C226">
         <v>1</v>
@@ -14857,7 +14857,7 @@
         <v>1</v>
       </c>
       <c r="H226">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>501</v>
@@ -14889,7 +14889,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0003646385036976841</v>
+        <v>0.0003692285295437464</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14907,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>502</v>
@@ -14939,7 +14939,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0003646385036976841</v>
+        <v>0.0003692285295437464</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14957,7 +14957,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>503</v>
@@ -14989,7 +14989,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0003646385036976841</v>
+        <v>0.0003692285295437464</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -15039,25 +15039,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0003646385036976841</v>
+        <v>0.0003354217530983316</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E230">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F230">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>505</v>
@@ -15089,28 +15089,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0003646385036976841</v>
+        <v>0.0003354217530983316</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E231">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F231">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K231">
         <v>0.001020220982817197</v>
@@ -15139,7 +15139,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0003312519926576762</v>
+        <v>0.0003354217530983316</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -15157,10 +15157,10 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K232">
         <v>0.00100706519152618</v>
@@ -15189,28 +15189,28 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0003312519926576762</v>
+        <v>0.0003076676713662897</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D233">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E233">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F233">
-        <v>0.11</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="J233" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K233">
         <v>0.001001111575934124</v>
@@ -15239,28 +15239,28 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0003312519926576762</v>
+        <v>0.0002987232570629569</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E234">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F234">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="J234" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K234">
         <v>0.0009674615713422838</v>
@@ -15289,28 +15289,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0003038429328897855</v>
+        <v>0.0002982519269029021</v>
       </c>
       <c r="C235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E235">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="F235">
-        <v>0.1899999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K235">
         <v>0.0009674615713422838</v>
@@ -15339,28 +15339,28 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0002950097101373356</v>
+        <v>0.0002634298576663635</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
       <c r="D236">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E236">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="F236">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="J236" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K236">
         <v>0.0009104005272264804</v>
@@ -15389,25 +15389,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0002945442392688673</v>
+        <v>0.0002634298576663635</v>
       </c>
       <c r="C237">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E237">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="F237">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>506</v>
@@ -15439,7 +15439,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0002601550569438753</v>
+        <v>0.0002634298576663635</v>
       </c>
       <c r="C238">
         <v>2</v>
@@ -15457,7 +15457,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>507</v>
@@ -15489,25 +15489,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0002601550569438753</v>
+        <v>0.0002571008191219897</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E239">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F239">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>508</v>
@@ -15539,25 +15539,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0002601550569438753</v>
+        <v>0.0002571008191219897</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E240">
-        <v>0.82</v>
+        <v>0.86</v>
       </c>
       <c r="F240">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>509</v>
@@ -15589,7 +15589,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0002539046971801886</v>
+        <v>0.0002571008191219897</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15607,7 +15607,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>510</v>
@@ -15639,7 +15639,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0002539046971801886</v>
+        <v>0.0002571008191219897</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15657,7 +15657,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>511</v>
@@ -15689,7 +15689,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0002539046971801886</v>
+        <v>0.0002571008191219897</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15707,7 +15707,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>512</v>
@@ -15739,7 +15739,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0002539046971801886</v>
+        <v>0.0002571008191219897</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15757,7 +15757,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>513</v>
@@ -15789,25 +15789,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0002539046971801886</v>
+        <v>0.0002112292407673491</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E245">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F245">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>514</v>
@@ -15839,25 +15839,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0002539046971801886</v>
+        <v>0.0002112292407673491</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E246">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F246">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>515</v>
@@ -15889,7 +15889,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0002086033665539878</v>
+        <v>0.0002112292407673491</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15907,7 +15907,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>516</v>
@@ -15939,7 +15939,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0002086033665539878</v>
+        <v>0.0002112292407673491</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15957,7 +15957,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>517</v>
@@ -15989,7 +15989,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0002086033665539878</v>
+        <v>0.0002112292407673491</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -16007,7 +16007,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>518</v>
@@ -16039,7 +16039,7 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0002086033665539878</v>
+        <v>0.0002112292407673491</v>
       </c>
       <c r="C250">
         <v>1</v>
@@ -16057,7 +16057,7 @@
         <v>1</v>
       </c>
       <c r="H250">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>519</v>
@@ -16089,7 +16089,7 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0002086033665539878</v>
+        <v>0.0002112292407673491</v>
       </c>
       <c r="C251">
         <v>1</v>
@@ -16107,7 +16107,7 @@
         <v>1</v>
       </c>
       <c r="H251">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>520</v>
@@ -16139,7 +16139,7 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0002086033665539878</v>
+        <v>0.0002112292407673491</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -16157,7 +16157,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>521</v>
@@ -16189,25 +16189,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0002086033665539878</v>
+        <v>0.000186572241491437</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E253">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F253">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>522</v>
@@ -16239,25 +16239,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0002086033665539878</v>
+        <v>0.0001598516810157836</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E254">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F254">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>523</v>
@@ -16289,25 +16289,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0001842528881856085</v>
+        <v>0.0001598516810157836</v>
       </c>
       <c r="C255">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D255">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E255">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F255">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>524</v>
@@ -16339,7 +16339,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0001578645015627071</v>
+        <v>0.0001598516810157836</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16357,7 +16357,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>525</v>
@@ -16389,7 +16389,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0001578645015627071</v>
+        <v>0.0001598516810157836</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16407,7 +16407,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>526</v>
@@ -16439,7 +16439,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0001578645015627071</v>
+        <v>0.0001598516810157836</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16457,7 +16457,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>527</v>
@@ -16489,7 +16489,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0001578645015627071</v>
+        <v>0.0001598516810157836</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16507,7 +16507,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>528</v>
@@ -16539,7 +16539,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0001578645015627071</v>
+        <v>0.0001598516810157836</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16557,7 +16557,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>529</v>
@@ -16589,7 +16589,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0001578645015627071</v>
+        <v>0.0001598516810157836</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16607,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>530</v>
@@ -16639,25 +16639,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0001578645015627071</v>
+        <v>0.0001025750705980252</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E262">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F262">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>531</v>
@@ -16689,25 +16689,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0001578645015627071</v>
+        <v>0.0001025750705980252</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E263">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F263">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>532</v>
@@ -16739,7 +16739,7 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0001012999193365873</v>
+        <v>0.0001025750705980252</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -16757,7 +16757,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>533</v>
@@ -16789,7 +16789,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0001012999193365873</v>
+        <v>0.0001025750705980252</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16807,7 +16807,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>534</v>
@@ -16839,7 +16839,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0001012999193365873</v>
+        <v>0.0001025750705980252</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16857,7 +16857,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>535</v>
@@ -16889,7 +16889,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0001012999193365873</v>
+        <v>0.0001025750705980252</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -16907,7 +16907,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>536</v>
@@ -16939,25 +16939,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0001012999193365873</v>
+        <v>0.0001020467606452103</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E268">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F268">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>537</v>
@@ -16989,25 +16989,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0001012999193365873</v>
+        <v>0.0001020467606452103</v>
       </c>
       <c r="C269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D269">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E269">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="F269">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>538</v>
@@ -17039,7 +17039,7 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0001007781770136929</v>
+        <v>0.0001020467606452103</v>
       </c>
       <c r="C270">
         <v>2</v>
@@ -17057,7 +17057,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>539</v>
@@ -17089,25 +17089,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.0001007781770136929</v>
+        <v>8.350177374399681E-05</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D271">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E271">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="F271">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>540</v>
@@ -17139,25 +17139,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0001007781770136929</v>
+        <v>5.904467045548587E-05</v>
       </c>
       <c r="C272">
         <v>2</v>
       </c>
       <c r="D272">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E272">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="F272">
-        <v>0.29</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>59</v>
+        <v>186</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>541</v>
@@ -17189,25 +17189,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>8.246373017745387E-05</v>
+        <v>5.904467045548587E-05</v>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D273">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E273">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F273">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>281</v>
+        <v>31</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>542</v>
@@ -17239,25 +17239,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>5.831066281041629E-05</v>
+        <v>5.904467045548495E-05</v>
       </c>
       <c r="C274">
         <v>2</v>
       </c>
       <c r="D274">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E274">
+        <v>0.67</v>
+      </c>
+      <c r="F274">
         <v>0.33</v>
       </c>
-      <c r="F274">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>543</v>
@@ -17289,25 +17289,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>5.831066281041629E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275">
         <v>3</v>
       </c>
       <c r="E275">
+        <v>0.67</v>
+      </c>
+      <c r="F275">
         <v>0.33</v>
       </c>
-      <c r="F275">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>544</v>
@@ -17339,13 +17339,13 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>5.831066281041537E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E276">
         <v>0.67</v>
@@ -17357,7 +17357,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>545</v>
@@ -17389,7 +17389,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17407,7 +17407,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>546</v>
@@ -17439,7 +17439,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17457,7 +17457,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>547</v>
@@ -17489,7 +17489,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17507,7 +17507,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>548</v>
@@ -17539,7 +17539,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17557,7 +17557,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>549</v>
@@ -17589,7 +17589,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17607,7 +17607,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>550</v>
@@ -17639,7 +17639,7 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -17657,7 +17657,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>551</v>
@@ -17689,7 +17689,7 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -17707,7 +17707,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>552</v>
@@ -17739,7 +17739,7 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -17757,7 +17757,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>553</v>
@@ -17789,7 +17789,7 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C285">
         <v>1</v>
@@ -17807,7 +17807,7 @@
         <v>1</v>
       </c>
       <c r="H285">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>554</v>
@@ -17839,7 +17839,7 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C286">
         <v>1</v>
@@ -17857,7 +17857,7 @@
         <v>1</v>
       </c>
       <c r="H286">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>555</v>
@@ -17889,7 +17889,7 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C287">
         <v>1</v>
@@ -17907,7 +17907,7 @@
         <v>1</v>
       </c>
       <c r="H287">
-        <v>123</v>
+        <v>48</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>556</v>
@@ -17939,7 +17939,7 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -17957,7 +17957,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>557</v>
@@ -17989,7 +17989,7 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>4.123186508872694E-05</v>
+        <v>4.175088687199841E-05</v>
       </c>
       <c r="C289">
         <v>1</v>
@@ -18007,7 +18007,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>48</v>
+        <v>233</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>558</v>
@@ -18039,25 +18039,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>4.123186508872694E-05</v>
+        <v>0</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E290">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F290">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>559</v>
@@ -18089,25 +18089,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>4.123186508872694E-05</v>
+        <v>0</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E291">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F291">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>560</v>
@@ -18157,7 +18157,7 @@
         <v>1</v>
       </c>
       <c r="H292">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>561</v>
@@ -18207,7 +18207,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>562</v>
@@ -18257,7 +18257,7 @@
         <v>1</v>
       </c>
       <c r="H294">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>563</v>
@@ -18307,7 +18307,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>564</v>
@@ -18357,7 +18357,7 @@
         <v>1</v>
       </c>
       <c r="H296">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>565</v>
@@ -18407,7 +18407,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>566</v>
@@ -18457,7 +18457,7 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>567</v>
@@ -18507,7 +18507,7 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>568</v>
@@ -18557,7 +18557,7 @@
         <v>1</v>
       </c>
       <c r="H300">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>569</v>
@@ -18607,7 +18607,7 @@
         <v>1</v>
       </c>
       <c r="H301">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>570</v>
@@ -18657,7 +18657,7 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>571</v>
@@ -18707,10 +18707,10 @@
         <v>1</v>
       </c>
       <c r="H303">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J303" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K303">
         <v>0.00086219847983235</v>
@@ -18757,10 +18757,10 @@
         <v>1</v>
       </c>
       <c r="H304">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K304">
         <v>0.0007937000440326672</v>
@@ -18807,10 +18807,10 @@
         <v>1</v>
       </c>
       <c r="H305">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K305">
         <v>0.0007577641269865488</v>
@@ -18835,32 +18835,8 @@
       </c>
     </row>
     <row r="306" spans="1:17">
-      <c r="A306" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B306">
-        <v>0</v>
-      </c>
-      <c r="C306">
-        <v>1</v>
-      </c>
-      <c r="D306">
-        <v>2</v>
-      </c>
-      <c r="E306">
-        <v>0.5</v>
-      </c>
-      <c r="F306">
-        <v>0.5</v>
-      </c>
-      <c r="G306" t="b">
-        <v>1</v>
-      </c>
-      <c r="H306">
-        <v>26</v>
-      </c>
       <c r="J306" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K306">
         <v>0.0007577641269865488</v>
@@ -18885,32 +18861,8 @@
       </c>
     </row>
     <row r="307" spans="1:17">
-      <c r="A307" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B307">
-        <v>0</v>
-      </c>
-      <c r="C307">
-        <v>1</v>
-      </c>
-      <c r="D307">
-        <v>2</v>
-      </c>
-      <c r="E307">
-        <v>0.5</v>
-      </c>
-      <c r="F307">
-        <v>0.5</v>
-      </c>
-      <c r="G307" t="b">
-        <v>1</v>
-      </c>
-      <c r="H307">
-        <v>21</v>
-      </c>
       <c r="J307" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K307">
         <v>0.000740248546594278</v>
@@ -22888,7 +22840,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K460">
         <v>0.0007259620606128491</v>
@@ -22914,7 +22866,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K461">
         <v>0.0006702644731638041</v>
@@ -22940,7 +22892,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K462">
         <v>0.0006702644731638041</v>
@@ -22966,7 +22918,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K463">
         <v>0.0006096663918181874</v>
@@ -22992,7 +22944,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K464">
         <v>0.0006096663918181874</v>
@@ -23018,7 +22970,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K465">
         <v>0.0005854240729221915</v>
@@ -23044,7 +22996,7 @@
     </row>
     <row r="466" spans="10:17">
       <c r="J466" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K466">
         <v>0.0005714937890049018</v>
@@ -23070,7 +23022,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K467">
         <v>0.0005714937890049018</v>
@@ -23096,7 +23048,7 @@
     </row>
     <row r="468" spans="10:17">
       <c r="J468" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K468">
         <v>0.000532841227752234</v>
@@ -23122,7 +23074,7 @@
     </row>
     <row r="469" spans="10:17">
       <c r="J469" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K469">
         <v>0.000532841227752234</v>
@@ -23148,7 +23100,7 @@
     </row>
     <row r="470" spans="10:17">
       <c r="J470" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K470">
         <v>0.0005280217561302565</v>
@@ -23174,7 +23126,7 @@
     </row>
     <row r="471" spans="10:17">
       <c r="J471" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K471">
         <v>0.0005196412924724384</v>
@@ -32586,7 +32538,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K833">
         <v>0.0004937018807007673</v>
@@ -32612,7 +32564,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K834">
         <v>0.0004937018807007673</v>
@@ -32638,7 +32590,7 @@
     </row>
     <row r="835" spans="10:17">
       <c r="J835" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K835">
         <v>0.0004822733996124357</v>
@@ -32664,7 +32616,7 @@
     </row>
     <row r="836" spans="10:17">
       <c r="J836" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K836">
         <v>0.0004699869463607192</v>
@@ -32690,7 +32642,7 @@
     </row>
     <row r="837" spans="10:17">
       <c r="J837" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K837">
         <v>0.0004407524187633784</v>
@@ -32716,7 +32668,7 @@
     </row>
     <row r="838" spans="10:17">
       <c r="J838" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K838">
         <v>0.0004139573318331295</v>
@@ -32742,7 +32694,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K839">
         <v>0.0004113892204087701</v>
@@ -32768,7 +32720,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K840">
         <v>0.0003819140649837662</v>
@@ -32794,7 +32746,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K841">
         <v>0.0003733677643737338</v>
@@ -32820,7 +32772,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K842">
         <v>0.0003733677643737338</v>
@@ -32846,7 +32798,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K843">
         <v>0.0003589337613289607</v>
@@ -32872,7 +32824,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K844">
         <v>0.0003323309568408223</v>
@@ -32924,7 +32876,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K846">
         <v>0.0002930681889046249</v>
@@ -32950,7 +32902,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K847">
         <v>0.0002908961074580886</v>
@@ -32976,7 +32928,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K848">
         <v>0.0002908961074580886</v>
@@ -33002,7 +32954,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K849">
         <v>0.0002908961074580886</v>
@@ -33028,7 +32980,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K850">
         <v>0.0002908961074580886</v>
@@ -33054,7 +33006,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K851">
         <v>0.0002908961074580886</v>
@@ -33080,7 +33032,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K852">
         <v>0.0002908961074580886</v>
@@ -33106,7 +33058,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K853">
         <v>0.0002864581067875472</v>
@@ -33132,7 +33084,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K854">
         <v>0.0002491481245788847</v>
@@ -33158,7 +33110,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K855">
         <v>0.0002491481245788847</v>
@@ -33184,7 +33136,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K856">
         <v>0.0002491481245788847</v>
@@ -33210,7 +33162,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K857">
         <v>0.0002072305037245208</v>
@@ -33236,7 +33188,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K858">
         <v>0.0001754185199773511</v>
@@ -33262,7 +33214,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K859">
         <v>0.0001681954789034133</v>
@@ -33288,7 +33240,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K860">
         <v>0.000165386665065341</v>
@@ -33314,7 +33266,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K861">
         <v>0.000165386665065341</v>
@@ -33340,7 +33292,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K862">
         <v>0.000165386665065341</v>
@@ -33366,7 +33318,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K863">
         <v>0.000165386665065341</v>
@@ -33392,7 +33344,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K864">
         <v>0.000165386665065341</v>
@@ -33418,7 +33370,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K865">
         <v>0.000165386665065341</v>
@@ -33444,7 +33396,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K866">
         <v>0.0001467549161378098</v>
@@ -33470,7 +33422,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K867">
         <v>0.0001467549161378098</v>
@@ -33496,7 +33448,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K868">
         <v>0.0001467549161378098</v>
@@ -33522,7 +33474,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K869">
         <v>0.0001240396250216928</v>
@@ -33548,7 +33500,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K870">
         <v>0.0001240396250216928</v>
@@ -33574,7 +33526,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K871">
         <v>0.0001240396250216928</v>
@@ -33600,7 +33552,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K872">
         <v>0.0001240396250216928</v>
@@ -33626,7 +33578,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K873">
         <v>0.0001240396250216928</v>
@@ -33652,7 +33604,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K874">
         <v>0.0001240396250216928</v>
@@ -33678,7 +33630,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K875">
         <v>0.0001240396250216928</v>
@@ -33704,7 +33656,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K876">
         <v>0.0001240396250216928</v>
@@ -33730,7 +33682,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K877">
         <v>9.166477058767296E-05</v>
@@ -33756,7 +33708,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K878">
         <v>8.395926110329475E-05</v>
@@ -33782,7 +33734,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K879">
         <v>8.395926110329475E-05</v>
@@ -33808,7 +33760,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K880">
         <v>8.395926110329475E-05</v>
@@ -33834,7 +33786,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K881">
         <v>8.395926110329475E-05</v>
@@ -33860,7 +33812,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K882">
         <v>8.395926110329475E-05</v>
@@ -33886,7 +33838,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K883">
         <v>8.395926110329475E-05</v>
@@ -33912,7 +33864,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K884">
         <v>8.395926110329475E-05</v>
@@ -33938,7 +33890,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K885">
         <v>8.395926110329475E-05</v>
@@ -33964,7 +33916,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K886">
         <v>4.665775694169593E-05</v>
@@ -33990,7 +33942,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K887">
         <v>4.665775694169593E-05</v>
@@ -34016,7 +33968,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K888">
         <v>4.665775694169593E-05</v>
@@ -34042,7 +33994,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K889">
         <v>4.665775694169593E-05</v>
@@ -34068,7 +34020,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K890">
         <v>4.665775694169593E-05</v>
@@ -34094,7 +34046,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K891">
         <v>4.665775694169593E-05</v>
@@ -34120,7 +34072,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K892">
         <v>4.237313843442277E-05</v>
@@ -34146,7 +34098,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K893">
         <v>4.237313843442277E-05</v>
@@ -34172,7 +34124,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K894">
         <v>4.237313843442277E-05</v>
@@ -34198,7 +34150,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K895">
         <v>3.101216622827163E-05</v>
@@ -34224,7 +34176,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K896">
         <v>2.192891303929519E-05</v>
@@ -34250,7 +34202,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K897">
         <v>1.550608311413582E-05</v>
@@ -34276,7 +34228,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K898">
         <v>1.550608311413582E-05</v>
@@ -34302,7 +34254,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K899">
         <v>1.550608311413582E-05</v>
@@ -34328,7 +34280,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K900">
         <v>1.550608311413582E-05</v>
@@ -34354,7 +34306,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K901">
         <v>1.550608311413582E-05</v>
@@ -34380,7 +34332,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K902">
         <v>1.550608311413582E-05</v>
@@ -34406,7 +34358,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K903">
         <v>1.550608311413582E-05</v>
@@ -34432,7 +34384,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K904">
         <v>1.550608311413582E-05</v>
@@ -34458,7 +34410,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K905">
         <v>1.550608311413582E-05</v>
@@ -34484,7 +34436,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K906">
         <v>1.550608311413582E-05</v>
@@ -34510,7 +34462,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K907">
         <v>1.550608311413582E-05</v>
@@ -34536,7 +34488,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K908">
         <v>1.550608311413582E-05</v>
@@ -34562,7 +34514,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K909">
         <v>1.550608311413582E-05</v>
@@ -34588,7 +34540,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K910">
         <v>1.550608311413582E-05</v>
@@ -34614,7 +34566,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K911">
         <v>1.550608311413582E-05</v>
@@ -34640,7 +34592,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K912">
         <v>1.096445651964748E-05</v>
@@ -34666,7 +34618,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K913">
         <v>1.096445651964748E-05</v>
@@ -34692,7 +34644,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K914">
         <v>0</v>
@@ -34718,7 +34670,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K915">
         <v>0</v>
@@ -34744,7 +34696,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K916">
         <v>0</v>
@@ -34770,7 +34722,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K917">
         <v>0</v>
@@ -34796,7 +34748,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K918">
         <v>0</v>
@@ -34822,7 +34774,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K919">
         <v>0</v>
@@ -34848,7 +34800,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K920">
         <v>0</v>
@@ -34874,7 +34826,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K921">
         <v>0</v>
@@ -34900,7 +34852,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K922">
         <v>0</v>
@@ -34926,7 +34878,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K923">
         <v>0</v>
@@ -34952,7 +34904,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K924">
         <v>0</v>
@@ -34978,7 +34930,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K925">
         <v>0</v>
@@ -35004,7 +34956,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K926">
         <v>0</v>
@@ -35030,7 +34982,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K927">
         <v>0</v>
@@ -35056,7 +35008,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K928">
         <v>0</v>
@@ -35082,7 +35034,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K929">
         <v>0</v>
